--- a/RegressionTests/Unit_Test_6/expected_Scheme_605685_fortest.xlsx
+++ b/RegressionTests/Unit_Test_6/expected_Scheme_605685_fortest.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,6 +389,11 @@
           <t>AVC</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Paypoint</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -416,9 +421,19 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Forename [Finuge] does not match Refno member's (0750079) forename [PHILIP] or its initial
+Surname [O'Lisryan] does not match Refno member's (0750079) surname [BARRET]  (forename PHILIP)</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>O'Lisryan</t>
@@ -443,9 +458,19 @@
       <c r="G3" t="n">
         <v>200</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Forename [Schull] does not match Refno member's (0750080) forename [JOHN] or its initial
+Surname [Tydavnet] does not match Refno member's (0750080) surname [QUINN]  (forename JOHN)</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tydavnet</t>
@@ -470,9 +495,19 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Forename [Bellanamullia] does not match Refno member's (0750083) forename [THERESA] or its initial
+Surname [Elphin] does not match Refno member's (0750083) surname [PIERCE]  (forename THERESA)</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Elphin</t>
@@ -497,9 +532,19 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Forename [Moycullen] does not match Refno member's (0750087) forename [ERIC] or its initial
+Surname [Ballinderreen] does not match Refno member's (0750087) surname [BRDAR]  (forename ERIC)</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Ballinderreen</t>
@@ -523,6 +568,11 @@
       </c>
       <c r="G6" t="n">
         <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -551,6 +601,11 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -578,6 +633,11 @@
       <c r="G8" t="n">
         <v>50</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -605,6 +665,11 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -632,6 +697,11 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -659,6 +729,11 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -686,6 +761,11 @@
       <c r="G12" t="n">
         <v>440.16</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -713,9 +793,19 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Forename [Tivoli] does not match Refno member's (0879595) forename [FERGAL] or its initial
+Surname [Carrick] does not match Refno member's (0879595) surname [OBRIEN]  (forename FERGAL)</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Carrick</t>
@@ -740,9 +830,19 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Forename [Milltown] does not match Refno member's (0878643) forename [CONOR] or its initial
+Surname [O'Carrigaholt] does not match Refno member's (0878643) surname [SULLIVAN]  (forename CONOR)</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>O'Carrigaholt</t>
@@ -767,9 +867,19 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>O'Ballyliffin</t>
@@ -790,6 +900,7 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RegressionTests/Unit_Test_6/expected_Scheme_605685_fortest.xlsx
+++ b/RegressionTests/Unit_Test_6/expected_Scheme_605685_fortest.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,11 +389,6 @@
           <t>AVC</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Paypoint</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -421,19 +416,9 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Forename [Finuge] does not match Refno member's (0750079) forename [PHILIP] or its initial
-Surname [O'Lisryan] does not match Refno member's (0750079) surname [BARRET]  (forename PHILIP)</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>O'Lisryan</t>
@@ -458,19 +443,9 @@
       <c r="G3" t="n">
         <v>200</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Forename [Schull] does not match Refno member's (0750080) forename [JOHN] or its initial
-Surname [Tydavnet] does not match Refno member's (0750080) surname [QUINN]  (forename JOHN)</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tydavnet</t>
@@ -495,19 +470,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Forename [Bellanamullia] does not match Refno member's (0750083) forename [THERESA] or its initial
-Surname [Elphin] does not match Refno member's (0750083) surname [PIERCE]  (forename THERESA)</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Elphin</t>
@@ -532,19 +497,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Forename [Moycullen] does not match Refno member's (0750087) forename [ERIC] or its initial
-Surname [Ballinderreen] does not match Refno member's (0750087) surname [BRDAR]  (forename ERIC)</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Ballinderreen</t>
@@ -568,11 +523,6 @@
       </c>
       <c r="G6" t="n">
         <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -601,11 +551,6 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -633,11 +578,6 @@
       <c r="G8" t="n">
         <v>50</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -665,11 +605,6 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -697,11 +632,6 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -729,11 +659,6 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -761,11 +686,6 @@
       <c r="G12" t="n">
         <v>440.16</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -793,19 +713,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Forename [Tivoli] does not match Refno member's (0879595) forename [FERGAL] or its initial
-Surname [Carrick] does not match Refno member's (0879595) surname [OBRIEN]  (forename FERGAL)</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>Carrick</t>
@@ -830,19 +740,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Forename [Milltown] does not match Refno member's (0878643) forename [CONOR] or its initial
-Surname [O'Carrigaholt] does not match Refno member's (0878643) surname [SULLIVAN]  (forename CONOR)</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>O'Carrigaholt</t>
@@ -867,19 +767,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>O'Ballyliffin</t>
@@ -900,7 +790,6 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
